--- a/FoodTracker.xlsx
+++ b/FoodTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhautik/Desktop/Winter Arc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24CD91A-8EB4-5844-B455-361AC994A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F0824A-D95C-554C-A01E-DA550C96F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -648,6 +648,21 @@
   </si>
   <si>
     <t>Haldiram Mung Daal + Aloo Bhujiya</t>
+  </si>
+  <si>
+    <t>(M)Chinese 'Hong-Kong' crispy slice with Boiled potatoes and Protien Bowl</t>
+  </si>
+  <si>
+    <t>63.3,27.9,21.8</t>
+  </si>
+  <si>
+    <t>75.3,43.7,27.2</t>
+  </si>
+  <si>
+    <t>(M)Cauliflower cheese Medallion with Rice and Protien bowl</t>
+  </si>
+  <si>
+    <t>84.4,19.2,29.5</t>
   </si>
 </sst>
 </file>
@@ -655,7 +670,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -669,6 +684,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -711,10 +727,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
       <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1316,7 @@
         <v>840</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF27" si="0">AD3-AE3</f>
+        <f t="shared" ref="AF3:AF28" si="0">AD3-AE3</f>
         <v>1459</v>
       </c>
       <c r="AG3">
@@ -3610,10 +3626,12 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
+        <f t="shared" ref="A28:A29" si="1">A27+1</f>
         <v>45715</v>
       </c>
-      <c r="B28" t="s">
-        <v>76</v>
+      <c r="B28" t="str">
+        <f t="shared" ref="B28:B29" si="2">TEXT(A28, "DDDD")</f>
+        <v>Thursday</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -3624,6 +3642,24 @@
       <c r="E28">
         <v>557</v>
       </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28">
+        <v>563</v>
+      </c>
+      <c r="I28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28">
+        <v>714</v>
+      </c>
       <c r="L28" t="s">
         <v>73</v>
       </c>
@@ -3642,17 +3678,48 @@
       <c r="Q28">
         <v>95</v>
       </c>
+      <c r="R28" t="s">
+        <v>200</v>
+      </c>
+      <c r="S28" t="s">
+        <v>201</v>
+      </c>
+      <c r="T28">
+        <v>109</v>
+      </c>
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W28">
+        <v>120</v>
+      </c>
       <c r="AA28">
-        <v>88.3</v>
+        <v>236.6</v>
       </c>
       <c r="AB28">
-        <v>52.2</v>
+        <v>153.4</v>
       </c>
       <c r="AC28">
-        <v>25.6</v>
+        <v>82.4</v>
       </c>
       <c r="AD28">
         <v>759</v>
+      </c>
+      <c r="AE28">
+        <v>657</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="AG28">
+        <v>2.75</v>
+      </c>
+      <c r="AH28">
+        <v>13518</v>
       </c>
       <c r="AI28" t="s">
         <v>203</v>
@@ -3660,10 +3727,12 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
+        <f t="shared" si="1"/>
         <v>45716</v>
       </c>
-      <c r="B29" t="s">
-        <v>80</v>
+      <c r="B29" t="str">
+        <f t="shared" si="2"/>
+        <v>Friday</v>
       </c>
       <c r="C29" t="s">
         <v>47</v>
@@ -3674,14 +3743,59 @@
       <c r="E29">
         <v>557</v>
       </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29">
+        <v>686</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29">
+        <v>786</v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29">
+        <v>107</v>
+      </c>
+      <c r="O29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29">
+        <v>95</v>
+      </c>
+      <c r="R29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29">
+        <v>120</v>
+      </c>
       <c r="AA29">
-        <v>53.1</v>
+        <v>263.89999999999998</v>
       </c>
       <c r="AB29">
-        <v>46.2</v>
+        <v>141.9</v>
       </c>
       <c r="AC29">
-        <v>19.899999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="AD29">
         <v>557</v>

--- a/FoodTracker.xlsx
+++ b/FoodTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhautik/Desktop/Winter Arc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F0824A-D95C-554C-A01E-DA550C96F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26214E76-F2E3-3A42-9366-2D8C8F792B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="131" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3706,14 +3706,14 @@
         <v>82.4</v>
       </c>
       <c r="AD28">
-        <v>759</v>
+        <v>2118</v>
       </c>
       <c r="AE28">
         <v>657</v>
       </c>
       <c r="AF28">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>1461</v>
       </c>
       <c r="AG28">
         <v>2.75</v>

--- a/FoodTracker.xlsx
+++ b/FoodTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhautik/Desktop/Winter Arc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26214E76-F2E3-3A42-9366-2D8C8F792B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79485B1-C83F-D041-9192-F7B5960985BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="213">
   <si>
     <t>Date</t>
   </si>
@@ -644,9 +644,6 @@
     <t>318.3,153.6,83.7</t>
   </si>
   <si>
-    <t>88.3,52.2,25.6</t>
-  </si>
-  <si>
     <t>Haldiram Mung Daal + Aloo Bhujiya</t>
   </si>
   <si>
@@ -663,6 +660,18 @@
   </si>
   <si>
     <t>84.4,19.2,29.5</t>
+  </si>
+  <si>
+    <t>(H)Pigeon peas Dal with Protien tortillas, peanuts</t>
+  </si>
+  <si>
+    <t>90.0,54,35.8</t>
+  </si>
+  <si>
+    <t>236.6,153.4,82.4</t>
+  </si>
+  <si>
+    <t>264.7,150.4,91.9</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="131" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" topLeftCell="X4" zoomScale="131" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1220,7 @@
         <v>494</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
@@ -1316,7 +1325,7 @@
         <v>840</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF28" si="0">AD3-AE3</f>
+        <f t="shared" ref="AF3:AF29" si="0">AD3-AE3</f>
         <v>1459</v>
       </c>
       <c r="AG3">
@@ -3643,10 +3652,10 @@
         <v>557</v>
       </c>
       <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
         <v>205</v>
-      </c>
-      <c r="G28" t="s">
-        <v>206</v>
       </c>
       <c r="H28">
         <v>563</v>
@@ -3655,7 +3664,7 @@
         <v>141</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K28">
         <v>714</v>
@@ -3722,7 +3731,7 @@
         <v>13518</v>
       </c>
       <c r="AI28" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
@@ -3744,19 +3753,19 @@
         <v>557</v>
       </c>
       <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
         <v>208</v>
-      </c>
-      <c r="G29" t="s">
-        <v>209</v>
       </c>
       <c r="H29">
         <v>686</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="K29">
         <v>786</v>
@@ -3789,19 +3798,32 @@
         <v>120</v>
       </c>
       <c r="AA29">
-        <v>263.89999999999998</v>
+        <v>264.7</v>
       </c>
       <c r="AB29">
-        <v>141.9</v>
+        <v>150.4</v>
       </c>
       <c r="AC29">
-        <v>88.3</v>
+        <v>91.9</v>
       </c>
       <c r="AD29">
-        <v>557</v>
+        <v>2059</v>
+      </c>
+      <c r="AE29">
+        <v>1089</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="0"/>
+        <v>970</v>
+      </c>
+      <c r="AG29">
+        <v>3</v>
+      </c>
+      <c r="AH29">
+        <v>16719</v>
       </c>
       <c r="AI29" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
